--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnernetheb-my.sharepoint.com/personal/b578882_heb_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A322C4D-FA7C-46BB-8558-FA03C1F8E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{895422DE-1C2B-4F8A-B6EC-2EF29478372B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{78C695A7-98F7-4B51-B9AF-BB9F9D019CA3}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{65B4762E-EB4F-440B-BDC6-30D0217F2BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,17 +212,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,326 +549,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E180084-03F4-4D14-B845-067970828F39}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC7D96F-A767-4C78-B9E1-C5F002518C31}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>45658</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>45658</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>45658</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>45658</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>45747</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>45747</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>206227</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>45747</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>707227705706703</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>45747</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>807227205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>45748</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>405227404403</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>45748</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>45749</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>45750</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>45750</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>45754</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>45754</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>45754</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>227707705404</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>45755</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>205227404</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>45756</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>404205227</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>45756</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>45756</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>227705707</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>45761</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>227205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>123</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnernetheb-my.sharepoint.com/personal/b578882_heb_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{895422DE-1C2B-4F8A-B6EC-2EF29478372B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4434E6-FA62-4099-8E7C-EB42F4EB03F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{65B4762E-EB4F-440B-BDC6-30D0217F2BD7}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BAA92D75-43CC-4316-9798-2D151FF63582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Start Date</t>
   </si>
@@ -137,9 +137,6 @@
     <t>SA 05 (S00556)</t>
   </si>
   <si>
-    <t>Frozen in nose from 4-07 to 4-28</t>
-  </si>
-  <si>
     <t>HSS 06 (S00667)</t>
   </si>
   <si>
@@ -171,12 +168,6 @@
   </si>
   <si>
     <t>Inventory on 4-10 (Move up 227, Keep 705/707 at ODS)</t>
-  </si>
-  <si>
-    <t>SA 16 (S00205)</t>
-  </si>
-  <si>
-    <t>Inventory on 04-15</t>
   </si>
 </sst>
 </file>
@@ -549,8 +540,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC7D96F-A767-4C78-B9E1-C5F002518C31}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC8AC27-2E96-401A-BCB2-CFA052516116}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -725,9 +716,6 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>45750</v>
-      </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -773,9 +761,6 @@
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
       <c r="D16">
         <v>205</v>
       </c>
@@ -785,10 +770,10 @@
         <v>45754</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>227707705404</v>
@@ -799,10 +784,10 @@
         <v>45755</v>
       </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="2">
         <v>205227404</v>
@@ -813,10 +798,10 @@
         <v>45756</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
       </c>
       <c r="D19" s="2">
         <v>404205227</v>
@@ -827,13 +812,13 @@
         <v>45756</v>
       </c>
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -841,35 +826,13 @@
         <v>45756</v>
       </c>
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
       </c>
       <c r="D21" s="2">
         <v>227705707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>45761</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2">
-        <v>227205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>123</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnernetheb-my.sharepoint.com/personal/b578882_heb_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4434E6-FA62-4099-8E7C-EB42F4EB03F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA9B77B0-8C33-4355-AE48-302001FABD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BAA92D75-43CC-4316-9798-2D151FF63582}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8CD52B14-731F-4B9E-82DC-551822DEAD13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Start Date</t>
   </si>
@@ -50,81 +50,6 @@
     <t>Warehouse</t>
   </si>
   <si>
-    <t>SA 02 (S00191)</t>
-  </si>
-  <si>
-    <t>RSAL Pickup Mon, Wed, Fri</t>
-  </si>
-  <si>
-    <t>Frisco 2 (S00802)</t>
-  </si>
-  <si>
-    <t>RSAL Pickup Mon</t>
-  </si>
-  <si>
-    <t>Plano (S00790)</t>
-  </si>
-  <si>
-    <t>RSAL Pickup Mon, Thurs, Fri, Sat</t>
-  </si>
-  <si>
-    <t>RSAL Pickup Tues, Wed</t>
-  </si>
-  <si>
-    <t>Georgetown (S00781)</t>
-  </si>
-  <si>
-    <t>Inventory 4-01 (Request to be first stop)</t>
-  </si>
-  <si>
-    <t>SA 23 (S00618)</t>
-  </si>
-  <si>
-    <t>Construction Blocking from 7AM-4PM on 4-01</t>
-  </si>
-  <si>
-    <t>Houston 61 (S00698)</t>
-  </si>
-  <si>
-    <t>Inventory on 4-01 (Move up grocery / Frozen, Keep ODS on Refrigerated)</t>
-  </si>
-  <si>
-    <t>McAllen 03 (S00702)</t>
-  </si>
-  <si>
-    <t>Inventory on 4-01 (Move up Grocery, Keep ODS on Frozen)</t>
-  </si>
-  <si>
-    <t>Austin 12 (S00091)</t>
-  </si>
-  <si>
-    <t>Inventory on 4-02 (Keep ODS on 405,227. Move up 404,403)</t>
-  </si>
-  <si>
-    <t>SA 32 (S00623)</t>
-  </si>
-  <si>
-    <t>Floor waxing on 4-02 (Request to deliver before 6PM on 4-02)</t>
-  </si>
-  <si>
-    <t>404, 227, 205</t>
-  </si>
-  <si>
-    <t>Wharton (S00233)</t>
-  </si>
-  <si>
-    <t>First stop on 404</t>
-  </si>
-  <si>
-    <t>Austin 15 (S00183)</t>
-  </si>
-  <si>
-    <t>Chip pickup for Corp#805 (3 PLT) and 803 (2.5 PLT)</t>
-  </si>
-  <si>
-    <t>Floor waxing on 4/4. Move up 227 delivery</t>
-  </si>
-  <si>
     <t>Lytle (S00019)</t>
   </si>
   <si>
@@ -137,24 +62,36 @@
     <t>SA 05 (S00556)</t>
   </si>
   <si>
+    <t>Frozen in nose from 4-07 to 4-28</t>
+  </si>
+  <si>
     <t>HSS 06 (S00667)</t>
   </si>
   <si>
     <t>Inventory on 4-08 (Move up bread, frozen and GM. Keep ODS on 707/227)</t>
   </si>
   <si>
+    <t>227, 707, 705, 404</t>
+  </si>
+  <si>
     <t>Bulverde (S00622)</t>
   </si>
   <si>
     <t>Inventory on 04-09</t>
   </si>
   <si>
+    <t>205, 227, 404</t>
+  </si>
+  <si>
     <t>SA 31 (S00102)</t>
   </si>
   <si>
     <t>Inventory on 04-10 (Request to Delivery before 6PM)</t>
   </si>
   <si>
+    <t>404, 205, 227</t>
+  </si>
+  <si>
     <t>SA 04 (S00699)</t>
   </si>
   <si>
@@ -168,6 +105,60 @@
   </si>
   <si>
     <t>Inventory on 4-10 (Move up 227, Keep 705/707 at ODS)</t>
+  </si>
+  <si>
+    <t>Leander 01 (S00592)</t>
+  </si>
+  <si>
+    <t>Temp Drop and Hook on 403 Until 11-Apr</t>
+  </si>
+  <si>
+    <t>Marble Falls (S00735)</t>
+  </si>
+  <si>
+    <t>Inventory on 4/9 (Wants first stop 4/8)</t>
+  </si>
+  <si>
+    <t>227, 404</t>
+  </si>
+  <si>
+    <t>Burnet (S00433)</t>
+  </si>
+  <si>
+    <t>Parade down HEB street 8AM-Noon (Keep at ODS)</t>
+  </si>
+  <si>
+    <t>206, 403</t>
+  </si>
+  <si>
+    <t>SA 16 (S00205)</t>
+  </si>
+  <si>
+    <t>Inventory on 04-15</t>
+  </si>
+  <si>
+    <t>Georgetown 02 (S00487)</t>
+  </si>
+  <si>
+    <t>Inventory (Move up 407, Keep 227,405 at ODS)</t>
+  </si>
+  <si>
+    <t>407, 227, 405</t>
+  </si>
+  <si>
+    <t>College Station 3 (S00746)</t>
+  </si>
+  <si>
+    <t>Power Outage (Move up 227, Keep 404, 405, 407 at ODS)</t>
+  </si>
+  <si>
+    <t>227, 404, 405, 407</t>
+  </si>
+  <si>
+    <t>Power Outage (Push 703, Keep 706, 206 at ODS)</t>
+  </si>
+  <si>
+    <t>703, 706, 206</t>
   </si>
 </sst>
 </file>
@@ -203,10 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,8 +530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC8AC27-2E96-401A-BCB2-CFA052516116}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92660233-4EA6-445C-9DCE-2F5F9D7B31C4}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,7 +553,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45658</v>
+        <v>45754</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -571,268 +561,190 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>227</v>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45658</v>
+        <v>45754</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45658</v>
+        <v>45754</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>206</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45658</v>
+        <v>45755</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>227</v>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45747</v>
+        <v>45756</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>227</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45747</v>
+        <v>45756</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
-        <v>206227</v>
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45747</v>
+        <v>45756</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>707227705706703</v>
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45747</v>
+        <v>45755</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <v>807227205</v>
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45748</v>
+        <v>45755</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
-        <v>405227404403</v>
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45748</v>
+        <v>45759</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45749</v>
+        <v>45761</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>404</v>
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45770</v>
+      </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>227</v>
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45750</v>
+        <v>45770</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>404</v>
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45754</v>
+        <v>45771</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>45754</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>45754</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2">
-        <v>227707705404</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>45755</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2">
-        <v>205227404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>45756</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2">
-        <v>404205227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>45756</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
         <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>45756</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="2">
-        <v>227705707</v>
       </c>
     </row>
   </sheetData>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnernetheb-my.sharepoint.com/personal/b578882_heb_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA9B77B0-8C33-4355-AE48-302001FABD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7A7A0C8-F90F-4D12-867E-F687F578911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8CD52B14-731F-4B9E-82DC-551822DEAD13}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{62BA6386-30C6-4CAE-B9F4-36BE4E6B91DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Start Date</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>703, 706, 206</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -530,8 +533,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92660233-4EA6-445C-9DCE-2F5F9D7B31C4}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8B509A-7419-4DA7-8D2E-0EE2830B41B3}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,6 +750,11 @@
         <v>40</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnernetheb-my.sharepoint.com/personal/b578882_heb_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7A7A0C8-F90F-4D12-867E-F687F578911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F91B229-A3DA-4DC7-A115-3DD5543A132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{62BA6386-30C6-4CAE-B9F4-36BE4E6B91DC}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E1F0E8D6-DAB2-4A6B-9D83-7047C4EC64F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <t>703, 706, 206</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8B509A-7419-4DA7-8D2E-0EE2830B41B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E95CF2-3844-4F4A-935D-9979E0583290}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnernetheb-my.sharepoint.com/personal/b578882_heb_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F91B229-A3DA-4DC7-A115-3DD5543A132D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{603585B8-D6AB-4406-A235-6B008D89F9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E1F0E8D6-DAB2-4A6B-9D83-7047C4EC64F9}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B0242E9A-6F09-4B5B-8B9B-4DEA0D4EC0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Start Date</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>703, 706, 206</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -533,8 +530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E95CF2-3844-4F4A-935D-9979E0583290}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BF592B-7F26-4BCD-B202-76E22E2B993D}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,11 +747,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnernetheb-my.sharepoint.com/personal/b578882_heb_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{603585B8-D6AB-4406-A235-6B008D89F9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{651C9E49-18F3-4E1B-AF58-1DC4FC1B46C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B0242E9A-6F09-4B5B-8B9B-4DEA0D4EC0FC}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00410C07-6A9F-4C88-ABAE-13460FCC53D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Start Date</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Warehouse</t>
+  </si>
+  <si>
+    <t>April the 7th</t>
   </si>
   <si>
     <t>Lytle (S00019)</t>
@@ -530,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BF592B-7F26-4BCD-B202-76E22E2B993D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649BBCB-4B00-4020-8B37-C0862ECEA865}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -552,17 +555,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45754</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -570,10 +573,10 @@
         <v>45754</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>205</v>
@@ -584,13 +587,13 @@
         <v>45754</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -598,13 +601,13 @@
         <v>45755</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -612,13 +615,13 @@
         <v>45756</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -626,13 +629,13 @@
         <v>45756</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -640,13 +643,13 @@
         <v>45756</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -654,10 +657,10 @@
         <v>45755</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>403</v>
@@ -668,13 +671,13 @@
         <v>45755</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -682,13 +685,13 @@
         <v>45759</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -696,13 +699,13 @@
         <v>45761</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -710,13 +713,13 @@
         <v>45770</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -724,13 +727,13 @@
         <v>45770</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -738,13 +741,13 @@
         <v>45771</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnernetheb-my.sharepoint.com/personal/b578882_heb_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{651C9E49-18F3-4E1B-AF58-1DC4FC1B46C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A009BF50-F156-4CFF-A12D-BD7A9E4D780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00410C07-6A9F-4C88-ABAE-13460FCC53D7}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{290E9B3D-4A25-4612-8577-EBF8BBC718B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649BBCB-4B00-4020-8B37-C0862ECEA865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D561B3A-9E05-4575-A9F2-89C9282E2DC1}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-52</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-08 00:00:00</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-09 00:00:00</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -556,7 +556,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-09 00:00:00</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-09 00:00:00</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -600,7 +600,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-08 00:00:00</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-08 00:00:00</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -644,7 +644,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-12 00:00:00</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,6 +751,28 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nope (S00123)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>This is only a test</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -759,17 +759,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nope (S00123)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>This is only a test</t>
+          <t>2as</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>1as</t>
         </is>
       </c>
     </row>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -770,6 +770,28 @@
       <c r="D16" t="inlineStr">
         <is>
           <t>1as</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>wew</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
     </row>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -776,22 +776,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>wew</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sdf</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>dsfxgf</t>
         </is>
       </c>
     </row>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,24 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>fhgutyr</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>hgf</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>gf</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,24 +795,6 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>fhgutyr</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>hgf</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>gf</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DeliveryChanges.xlsx
+++ b/DeliveryChanges.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,50 +751,6 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-04-25</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2as</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1as</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-04-26</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>dsfxgf</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
